--- a/Tests/Validation/Canola/Wagga2008.xlsx
+++ b/Tests/Validation/Canola/Wagga2008.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lil026\ApsimX\Prototypes\Canola\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Working\01-Projects\ApsimX\Tests\Validation\Canola\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB543AAD-EA18-4FCE-9450-99E67676BABE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AEF6A1-A485-4768-A299-87C57CC4B3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="225" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$AL$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$AM$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="53">
   <si>
     <t>HAr GAI</t>
   </si>
@@ -193,6 +193,9 @@
   <si>
     <t>WaggaCR2008CvATR_Marlin</t>
   </si>
+  <si>
+    <t>Canola.FrostHeatGrainWt</t>
+  </si>
 </sst>
 </file>
 
@@ -260,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -269,10 +272,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,53 +554,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1DBC07-D785-4055-8068-A40DE3AED641}">
-  <dimension ref="A1:AP100"/>
+  <dimension ref="A1:AQ100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AF62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK86" sqref="AK86:AK100"/>
+      <selection pane="bottomRight" activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.140625" customWidth="1"/>
-    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -627,7 +632,7 @@
       <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="7" t="s">
         <v>41</v>
       </c>
       <c r="K1" s="6" t="s">
@@ -673,49 +678,52 @@
         <v>15</v>
       </c>
       <c r="Y1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>29</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>C2&amp;B2&amp;"Cv"&amp;D2&amp;"Treat"&amp;E2</f>
         <v>Wagga2008Cv46Y78TreatHigh</v>
@@ -745,7 +753,7 @@
         <v>39611</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="10">
+      <c r="K2">
         <f>I2-H2</f>
         <v>44</v>
       </c>
@@ -773,31 +781,32 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="5">
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="5">
         <v>3.3843035919475337</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AB2" s="3">
         <v>1.5053128554213269</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AC2" s="3">
         <v>3.1235683824649804E-2</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AD2" s="3">
         <v>1.2021638611726015</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AE2" s="3">
         <v>0.30314899424870012</v>
       </c>
-      <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
-      <c r="AH2" s="2"/>
+      <c r="AH2" s="3"/>
       <c r="AI2" s="2"/>
-      <c r="AJ2" s="3"/>
+      <c r="AJ2" s="2"/>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM2" s="3"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">C3&amp;B3&amp;"Cv"&amp;D3&amp;"Treat"&amp;E3</f>
         <v>Wagga2008Cv46Y78TreatHigh</v>
@@ -827,7 +836,7 @@
         <v>39633</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="10">
+      <c r="K3">
         <f t="shared" ref="K3:K66" si="1">I3-H3</f>
         <v>66</v>
       </c>
@@ -855,29 +864,30 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="3">
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="3">
         <v>16.135560594473183</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AC3" s="3">
         <v>0.23988990595514278</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AD3" s="3">
         <v>8.4410710377296212</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AE3" s="3">
         <v>6.9298580403858709</v>
       </c>
-      <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
-      <c r="AH3" s="2"/>
+      <c r="AH3" s="3"/>
       <c r="AI3" s="2"/>
-      <c r="AJ3" s="3"/>
+      <c r="AJ3" s="2"/>
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM3" s="3"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatHigh</v>
@@ -907,7 +917,7 @@
         <v>39640</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="10">
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
@@ -935,31 +945,32 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="5">
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="5">
         <v>5.6067599149953109</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AB4" s="3">
         <v>38.130002706314102</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AC4" s="3">
         <v>0.43605261008413138</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AD4" s="3">
         <v>17.602405527446827</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AE4" s="3">
         <v>21.847544646131926</v>
       </c>
-      <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
-      <c r="AH4" s="2"/>
+      <c r="AH4" s="3"/>
       <c r="AI4" s="2"/>
-      <c r="AJ4" s="3"/>
+      <c r="AJ4" s="2"/>
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM4" s="3"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatHigh</v>
@@ -989,7 +1000,7 @@
         <v>39655</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="10">
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
@@ -1017,31 +1028,32 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="5">
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="5">
         <v>5.5233117803003813</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AB5" s="3">
         <v>7.8091933359971506</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AC5" s="3">
         <v>0.10519235941269045</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AD5" s="3">
         <v>3.3491111051596869</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AE5" s="3">
         <v>10.245608845649793</v>
       </c>
-      <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
-      <c r="AH5" s="2"/>
+      <c r="AH5" s="3"/>
       <c r="AI5" s="2"/>
-      <c r="AJ5" s="3"/>
+      <c r="AJ5" s="2"/>
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM5" s="3"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatHigh</v>
@@ -1071,7 +1083,7 @@
         <v>39668</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="10">
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
@@ -1099,31 +1111,32 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="5">
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="5">
         <v>9.8717195010614027</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AB6" s="3">
         <v>49.946731889422381</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AC6" s="3">
         <v>0.66848542148049062</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AD6" s="3">
         <v>14.764733007775764</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AE6" s="3">
         <v>36.627257777719926</v>
       </c>
-      <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
-      <c r="AH6" s="2"/>
+      <c r="AH6" s="3"/>
       <c r="AI6" s="2"/>
-      <c r="AJ6" s="3"/>
+      <c r="AJ6" s="2"/>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM6" s="3"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatHigh</v>
@@ -1153,7 +1166,7 @@
         <v>39699</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="10">
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
@@ -1181,31 +1194,32 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="5">
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="5">
         <v>8.8972440156787549</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AB7" s="3">
         <v>38.685241057789753</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AC7" s="3">
         <v>0.37363852439696554</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AD7" s="3">
         <v>25.178300008077603</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AE7" s="3">
         <v>26.196412731121235</v>
       </c>
-      <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
-      <c r="AH7" s="2"/>
+      <c r="AH7" s="3"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="3"/>
+      <c r="AJ7" s="2"/>
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM7" s="3"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatHigh</v>
@@ -1234,10 +1248,10 @@
       <c r="I8" s="1">
         <v>39762</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8">
         <v>9</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
@@ -1278,45 +1292,48 @@
         <v>103.73101851851852</v>
       </c>
       <c r="Y8" s="3">
+        <v>103.73101851851852</v>
+      </c>
+      <c r="Z8" s="3">
         <v>9.0905467509702062E-2</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="AA8" s="5">
         <v>5.8239563080597607</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>50.995083984697985</v>
       </c>
-      <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="3">
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3">
         <v>33.92096455643501</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>21.538841239349217</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AG8" s="3">
         <v>9.5914325082641128</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AH8" s="3">
         <v>0.14221755634707425</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AI8" s="2">
         <v>20794.706826571371</v>
       </c>
-      <c r="AI8" s="2">
+      <c r="AJ8" s="2">
         <v>693.87240769533435</v>
       </c>
-      <c r="AJ8" s="3">
+      <c r="AK8" s="3">
         <v>26.154823286263806</v>
       </c>
-      <c r="AK8" s="3">
+      <c r="AL8" s="3">
         <v>23.059671271361033</v>
       </c>
-      <c r="AL8" s="3">
+      <c r="AM8" s="3">
         <v>1.5082910959437631E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatLate</v>
@@ -1346,7 +1363,7 @@
         <v>39611</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="10">
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -1368,23 +1385,24 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="5">
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="5">
         <v>3.4308231597864132</v>
       </c>
-      <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
-      <c r="AH9" s="2"/>
+      <c r="AH9" s="3"/>
       <c r="AI9" s="2"/>
-      <c r="AJ9" s="3"/>
+      <c r="AJ9" s="2"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM9" s="3"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatLate</v>
@@ -1414,7 +1432,7 @@
         <v>39633</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="10">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
@@ -1440,25 +1458,26 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="3">
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="3">
         <v>3.183565154246895</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>4.2603565540672211E-2</v>
       </c>
-      <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
-      <c r="AH10" s="2"/>
+      <c r="AH10" s="3"/>
       <c r="AI10" s="2"/>
-      <c r="AJ10" s="3"/>
+      <c r="AJ10" s="2"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM10" s="3"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatLate</v>
@@ -1488,7 +1507,7 @@
         <v>39640</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="10">
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
@@ -1516,31 +1535,32 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="5">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="5">
         <v>3.8918272262094238</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AB11" s="3">
         <v>1.6967975211638731</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AC11" s="3">
         <v>6.2717598458297899E-2</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AD11" s="3">
         <v>0.91193083082327897</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AE11" s="3">
         <v>0.96205289981056008</v>
       </c>
-      <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
-      <c r="AH11" s="2"/>
+      <c r="AH11" s="3"/>
       <c r="AI11" s="2"/>
-      <c r="AJ11" s="3"/>
+      <c r="AJ11" s="2"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM11" s="3"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatLate</v>
@@ -1570,7 +1590,7 @@
         <v>39655</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="10">
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
@@ -1598,31 +1618,32 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="5">
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="5">
         <v>12.904962837746618</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>24.348337038127244</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>0.37905372776716734</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>13.934936164228963</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>10.747637809175739</v>
       </c>
-      <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
-      <c r="AH12" s="2"/>
+      <c r="AH12" s="3"/>
       <c r="AI12" s="2"/>
-      <c r="AJ12" s="3"/>
+      <c r="AJ12" s="2"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM12" s="3"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatLate</v>
@@ -1652,7 +1673,7 @@
         <v>39668</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="10">
+      <c r="K13">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
@@ -1680,31 +1701,32 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="5">
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="5">
         <v>9.4539712299361849</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AB13" s="3">
         <v>32.981763695537921</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AC13" s="3">
         <v>0.3630632380506349</v>
       </c>
-      <c r="AC13" s="3">
+      <c r="AD13" s="3">
         <v>11.29954382855203</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AE13" s="3">
         <v>21.775041044816117</v>
       </c>
-      <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
-      <c r="AH13" s="2"/>
+      <c r="AH13" s="3"/>
       <c r="AI13" s="2"/>
-      <c r="AJ13" s="3"/>
+      <c r="AJ13" s="2"/>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM13" s="3"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatLate</v>
@@ -1734,7 +1756,7 @@
         <v>39708</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="10">
+      <c r="K14">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
@@ -1762,31 +1784,32 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="5">
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="5">
         <v>4.3016542792488615</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>54.786255990141136</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>0.26884782218920161</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>12.265947246245466</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>48.134224445422213</v>
       </c>
-      <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
-      <c r="AH14" s="2"/>
+      <c r="AH14" s="3"/>
       <c r="AI14" s="2"/>
-      <c r="AJ14" s="3"/>
+      <c r="AJ14" s="2"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM14" s="3"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatLate</v>
@@ -1815,10 +1838,10 @@
       <c r="I15" s="1">
         <v>39763</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15">
         <v>9</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15">
         <f t="shared" si="1"/>
         <v>187</v>
       </c>
@@ -1859,45 +1882,48 @@
         <v>127.45949074074073</v>
       </c>
       <c r="Y15" s="3">
+        <v>127.45949074074073</v>
+      </c>
+      <c r="Z15" s="3">
         <v>0.1268667984382052</v>
       </c>
-      <c r="Z15" s="5">
+      <c r="AA15" s="5">
         <v>3.430823159786347</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>33.465585525684489</v>
       </c>
-      <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
-      <c r="AD15" s="3">
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3">
         <v>31.49446423175452</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>30.669048257830759</v>
       </c>
-      <c r="AF15" s="3">
+      <c r="AG15" s="3">
         <v>5.2320106527955392</v>
       </c>
-      <c r="AG15" s="3">
+      <c r="AH15" s="3">
         <v>0.23089729859831606</v>
       </c>
-      <c r="AH15" s="2">
+      <c r="AI15" s="2">
         <v>12959.011540062596</v>
       </c>
-      <c r="AI15" s="2">
+      <c r="AJ15" s="2">
         <v>474.85867065864636</v>
       </c>
-      <c r="AJ15" s="3">
+      <c r="AK15" s="3">
         <v>52.402689884805383</v>
       </c>
-      <c r="AK15" s="3">
+      <c r="AL15" s="3">
         <v>11.80744870668474</v>
       </c>
-      <c r="AL15" s="3">
+      <c r="AM15" s="3">
         <v>7.3689311541742753E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatLow</v>
@@ -1927,7 +1953,7 @@
         <v>39611</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="10">
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -1955,31 +1981,32 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="5">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="5">
         <v>0.99339453623328688</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AB16" s="3">
         <v>0.44185443925756729</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AC16" s="3">
         <v>9.1686093767555359E-3</v>
       </c>
-      <c r="AC16" s="3">
+      <c r="AD16" s="3">
         <v>0.35287112367445889</v>
       </c>
-      <c r="AD16" s="3">
+      <c r="AE16" s="3">
         <v>8.8983315583096162E-2</v>
       </c>
-      <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
-      <c r="AH16" s="2"/>
+      <c r="AH16" s="3"/>
       <c r="AI16" s="2"/>
-      <c r="AJ16" s="3"/>
+      <c r="AJ16" s="2"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM16" s="3"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatLow</v>
@@ -2009,7 +2036,7 @@
         <v>39633</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="10">
+      <c r="K17">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
@@ -2037,29 +2064,30 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="3">
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="3">
         <v>3.7915039356105398</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5.6368882705799789E-2</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2.0822193744745952</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1.7094376542448184</v>
       </c>
-      <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
-      <c r="AH17" s="2"/>
+      <c r="AH17" s="3"/>
       <c r="AI17" s="2"/>
-      <c r="AJ17" s="3"/>
+      <c r="AJ17" s="2"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM17" s="3"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatLow</v>
@@ -2089,7 +2117,7 @@
         <v>39640</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="10">
+      <c r="K18">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
@@ -2117,31 +2145,32 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="5">
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="5">
         <v>5.4188425512590932</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>18.783681150976832</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>0.22858659870931117</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>10.200346345175156</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>8.642370023376964</v>
       </c>
-      <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
-      <c r="AH18" s="2"/>
+      <c r="AH18" s="3"/>
       <c r="AI18" s="2"/>
-      <c r="AJ18" s="3"/>
+      <c r="AJ18" s="2"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM18" s="3"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatLow</v>
@@ -2171,7 +2200,7 @@
         <v>39655</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="10">
+      <c r="K19">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
@@ -2199,31 +2228,32 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="5">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="5">
         <v>2.18787760474661</v>
       </c>
-      <c r="AA19" s="3">
+      <c r="AB19" s="3">
         <v>25.109532798921524</v>
       </c>
-      <c r="AB19" s="3">
+      <c r="AC19" s="3">
         <v>0.14167178913528647</v>
       </c>
-      <c r="AC19" s="3">
+      <c r="AD19" s="3">
         <v>8.9996174993788127</v>
       </c>
-      <c r="AD19" s="3">
+      <c r="AE19" s="3">
         <v>17.036818109837007</v>
       </c>
-      <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
-      <c r="AH19" s="2"/>
+      <c r="AH19" s="3"/>
       <c r="AI19" s="2"/>
-      <c r="AJ19" s="3"/>
+      <c r="AJ19" s="2"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM19" s="3"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatLow</v>
@@ -2253,7 +2283,7 @@
         <v>39668</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="10">
+      <c r="K20">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
@@ -2281,31 +2311,32 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
-      <c r="Z20" s="5">
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="5">
         <v>5.1484034930902149</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>45.243574616801787</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>0.39920119523525788</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>7.8989210229047409</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>39.927952179570106</v>
       </c>
-      <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
-      <c r="AH20" s="2"/>
+      <c r="AH20" s="3"/>
       <c r="AI20" s="2"/>
-      <c r="AJ20" s="3"/>
+      <c r="AJ20" s="2"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM20" s="3"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatLow</v>
@@ -2335,7 +2366,7 @@
         <v>39687</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="10">
+      <c r="K21">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
@@ -2363,31 +2394,32 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
-      <c r="Z21" s="5">
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="5">
         <v>3.9283710065919308</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>100.04936551318536</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>0.41347340994924919</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>22.220763073743687</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>78.991013410833105</v>
       </c>
-      <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
-      <c r="AH21" s="2"/>
+      <c r="AH21" s="3"/>
       <c r="AI21" s="2"/>
-      <c r="AJ21" s="3"/>
+      <c r="AJ21" s="2"/>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM21" s="3"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatLow</v>
@@ -2416,10 +2448,10 @@
       <c r="I22" s="1">
         <v>39762</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22">
         <v>9</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
@@ -2460,45 +2492,48 @@
         <v>204.51180555555555</v>
       </c>
       <c r="Y22" s="3">
+        <v>204.51180555555555</v>
+      </c>
+      <c r="Z22" s="3">
         <v>0.1376008675645371</v>
       </c>
-      <c r="Z22" s="5">
+      <c r="AA22" s="5">
         <v>1.9777786447494492</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>105.83005624292316</v>
       </c>
-      <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
-      <c r="AD22" s="3">
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3">
         <v>94.150732844092389</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>46.308568855222241</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AG22" s="3">
         <v>2.8540568375734319</v>
       </c>
-      <c r="AG22" s="3">
+      <c r="AH22" s="3">
         <v>0.24648766027261257</v>
       </c>
-      <c r="AH22" s="2">
+      <c r="AI22" s="2">
         <v>17357.977491256726</v>
       </c>
-      <c r="AI22" s="2">
+      <c r="AJ22" s="2">
         <v>921.87282587656023</v>
       </c>
-      <c r="AJ22" s="3">
+      <c r="AK22" s="3">
         <v>40.244747721945373</v>
       </c>
-      <c r="AK22" s="3">
+      <c r="AL22" s="3">
         <v>49.655248354856965</v>
       </c>
-      <c r="AL22" s="3">
+      <c r="AM22" s="3">
         <v>2.4262733164717942E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatMid</v>
@@ -2528,7 +2563,7 @@
         <v>39611</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="10">
+      <c r="K23">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -2556,31 +2591,32 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
-      <c r="Z23" s="5">
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="5">
         <v>2.6500585976517264</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1.178726188796007</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2.4458914581421305E-2</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>0.94134718991132449</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>0.23737899888464659</v>
       </c>
-      <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
-      <c r="AH23" s="2"/>
+      <c r="AH23" s="3"/>
       <c r="AI23" s="2"/>
-      <c r="AJ23" s="3"/>
+      <c r="AJ23" s="2"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM23" s="3"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatMid</v>
@@ -2610,7 +2646,7 @@
         <v>39633</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="10">
+      <c r="K24">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
@@ -2638,29 +2674,30 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="3">
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="3">
         <v>7.8418877447361339</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>0.1165865730280133</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>4.3066104827649037</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>3.5355939012243693</v>
       </c>
-      <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
-      <c r="AH24" s="2"/>
+      <c r="AH24" s="3"/>
       <c r="AI24" s="2"/>
-      <c r="AJ24" s="3"/>
+      <c r="AJ24" s="2"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM24" s="3"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatMid</v>
@@ -2690,7 +2727,7 @@
         <v>39640</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="10">
+      <c r="K25">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
@@ -2718,31 +2755,32 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
-      <c r="Z25" s="5">
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="5">
         <v>6.7355410008627565</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AB25" s="3">
         <v>15.20219236099471</v>
       </c>
-      <c r="AB25" s="3">
+      <c r="AC25" s="3">
         <v>0.13400114437912114</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AD25" s="3">
         <v>4.7709887640954678</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AE25" s="3">
         <v>11.410861808159163</v>
       </c>
-      <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
-      <c r="AH25" s="2"/>
+      <c r="AH25" s="3"/>
       <c r="AI25" s="2"/>
-      <c r="AJ25" s="3"/>
+      <c r="AJ25" s="2"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM25" s="3"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatMid</v>
@@ -2772,7 +2810,7 @@
         <v>39655</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="10">
+      <c r="K26">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
@@ -2800,31 +2838,32 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
-      <c r="Z26" s="5">
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="5">
         <v>7.5790303443263136</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>36.971429316828505</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>0.30389533878355118</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>12.797320263854168</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>24.988949188419696</v>
       </c>
-      <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
-      <c r="AH26" s="2"/>
+      <c r="AH26" s="3"/>
       <c r="AI26" s="2"/>
-      <c r="AJ26" s="3"/>
+      <c r="AJ26" s="2"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM26" s="3"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatMid</v>
@@ -2854,7 +2893,7 @@
         <v>39668</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="10">
+      <c r="K27">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
@@ -2882,31 +2921,32 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
-      <c r="Z27" s="5">
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="5">
         <v>8.9253047783464545</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>39.659481977564226</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>0.32581914445781551</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>7.8005002771408831</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>33.718011974250558</v>
       </c>
-      <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
-      <c r="AH27" s="2"/>
+      <c r="AH27" s="3"/>
       <c r="AI27" s="2"/>
-      <c r="AJ27" s="3"/>
+      <c r="AJ27" s="2"/>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM27" s="3"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatMid</v>
@@ -2936,7 +2976,7 @@
         <v>39692</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="10">
+      <c r="K28">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
@@ -2964,31 +3004,32 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
-      <c r="Z28" s="5">
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="5">
         <v>3.5460263250234725</v>
       </c>
-      <c r="AA28" s="3">
+      <c r="AB28" s="3">
         <v>30.837381498087581</v>
       </c>
-      <c r="AB28" s="3">
+      <c r="AC28" s="3">
         <v>0.39167322843413488</v>
       </c>
-      <c r="AC28" s="3">
+      <c r="AD28" s="3">
         <v>24.59981592424533</v>
       </c>
-      <c r="AD28" s="3">
+      <c r="AE28" s="3">
         <v>14.627685580411711</v>
       </c>
-      <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
-      <c r="AH28" s="2"/>
+      <c r="AH28" s="3"/>
       <c r="AI28" s="2"/>
-      <c r="AJ28" s="3"/>
+      <c r="AJ28" s="2"/>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM28" s="3"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008Cv46Y78TreatMid</v>
@@ -3017,10 +3058,10 @@
       <c r="I29" s="1">
         <v>39762</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29">
         <v>9</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
@@ -3061,45 +3102,48 @@
         <v>154.10046296296298</v>
       </c>
       <c r="Y29" s="3">
+        <v>154.10046296296298</v>
+      </c>
+      <c r="Z29" s="3">
         <v>0.11642331108806322</v>
       </c>
-      <c r="Z29" s="5">
+      <c r="AA29" s="5">
         <v>3.6059634091197332</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>58.585080382087085</v>
       </c>
-      <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
-      <c r="AD29" s="3">
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3">
         <v>51.114255309966723</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>43.324441327165445</v>
       </c>
-      <c r="AF29" s="3">
+      <c r="AG29" s="3">
         <v>6.8309203349412373</v>
       </c>
-      <c r="AG29" s="3">
+      <c r="AH29" s="3">
         <v>8.110281540530262E-2</v>
       </c>
-      <c r="AH29" s="2">
+      <c r="AI29" s="2">
         <v>30393.570888038659</v>
       </c>
-      <c r="AI29" s="2">
+      <c r="AJ29" s="2">
         <v>866.6488253402365</v>
       </c>
-      <c r="AJ29" s="3">
+      <c r="AK29" s="3">
         <v>11.859329063975407</v>
       </c>
-      <c r="AK29" s="3">
+      <c r="AL29" s="3">
         <v>32.522939704309891</v>
       </c>
-      <c r="AL29" s="3">
+      <c r="AM29" s="3">
         <v>1.6341572459386597E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatHigh</v>
@@ -3129,7 +3173,7 @@
         <v>39611</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="10">
+      <c r="K30">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -3157,31 +3201,32 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
-      <c r="Z30" s="5">
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="5">
         <v>1.4863412527080837</v>
       </c>
-      <c r="AA30" s="3">
+      <c r="AB30" s="3">
         <v>0.51282489071558868</v>
       </c>
-      <c r="AB30" s="3">
+      <c r="AC30" s="3">
         <v>1.0377225882563039E-2</v>
       </c>
-      <c r="AC30" s="3">
+      <c r="AD30" s="3">
         <v>0.40788919827440767</v>
       </c>
-      <c r="AD30" s="3">
+      <c r="AE30" s="3">
         <v>0.10493569244118046</v>
       </c>
-      <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
-      <c r="AH30" s="2"/>
+      <c r="AH30" s="3"/>
       <c r="AI30" s="2"/>
-      <c r="AJ30" s="3"/>
+      <c r="AJ30" s="2"/>
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM30" s="3"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatHigh</v>
@@ -3211,7 +3256,7 @@
         <v>39633</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="10">
+      <c r="K31">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
@@ -3239,29 +3284,30 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="3">
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="3">
         <v>12.511324670906481</v>
       </c>
-      <c r="AB31" s="3">
+      <c r="AC31" s="3">
         <v>0.18600782297616655</v>
       </c>
-      <c r="AC31" s="3">
+      <c r="AD31" s="3">
         <v>6.870973384842145</v>
       </c>
-      <c r="AD31" s="3">
+      <c r="AE31" s="3">
         <v>5.6408564675499164</v>
       </c>
-      <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
-      <c r="AH31" s="2"/>
+      <c r="AH31" s="3"/>
       <c r="AI31" s="2"/>
-      <c r="AJ31" s="3"/>
+      <c r="AJ31" s="2"/>
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM31" s="3"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatHigh</v>
@@ -3291,7 +3337,7 @@
         <v>39640</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="10">
+      <c r="K32">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
@@ -3319,31 +3365,32 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
-      <c r="Z32" s="5">
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="5">
         <v>8.5324295967772539</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>6.8920840475999654</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>0.1919060879198162</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>9.5209298957020554</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>4.3415255351370643</v>
       </c>
-      <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
-      <c r="AH32" s="2"/>
+      <c r="AH32" s="3"/>
       <c r="AI32" s="2"/>
-      <c r="AJ32" s="3"/>
+      <c r="AJ32" s="2"/>
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM32" s="3"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatHigh</v>
@@ -3373,7 +3420,7 @@
         <v>39655</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="10">
+      <c r="K33">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
@@ -3401,31 +3448,32 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
-      <c r="Z33" s="5">
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="5">
         <v>6.1127476297340815</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>20.159520174619452</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>0.10793499616810108</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>12.698777403600747</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>12.25763827478384</v>
       </c>
-      <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
-      <c r="AH33" s="2"/>
+      <c r="AH33" s="3"/>
       <c r="AI33" s="2"/>
-      <c r="AJ33" s="3"/>
+      <c r="AJ33" s="2"/>
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM33" s="3"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatHigh</v>
@@ -3455,7 +3503,7 @@
         <v>39668</v>
       </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="10">
+      <c r="K34">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
@@ -3483,31 +3531,32 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
-      <c r="Z34" s="5">
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="5">
         <v>10.991511668594976</v>
       </c>
-      <c r="AA34" s="3">
+      <c r="AB34" s="3">
         <v>12.155360568487115</v>
       </c>
-      <c r="AB34" s="3">
+      <c r="AC34" s="3">
         <v>0.19210411807370836</v>
       </c>
-      <c r="AC34" s="3">
+      <c r="AD34" s="3">
         <v>6.9305202924370342</v>
       </c>
-      <c r="AD34" s="3">
+      <c r="AE34" s="3">
         <v>12.45301573376006</v>
       </c>
-      <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
-      <c r="AH34" s="2"/>
+      <c r="AH34" s="3"/>
       <c r="AI34" s="2"/>
-      <c r="AJ34" s="3"/>
+      <c r="AJ34" s="2"/>
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM34" s="3"/>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatHigh</v>
@@ -3537,7 +3586,7 @@
         <v>39684</v>
       </c>
       <c r="J35" s="1"/>
-      <c r="K35" s="10">
+      <c r="K35">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
@@ -3565,31 +3614,32 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
-      <c r="Z35" s="5">
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="5">
         <v>3.5761204402026463</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>46.610775526461779</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>0.34940210233393465</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>13.199815036572662</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>43.66969434416842</v>
       </c>
-      <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
-      <c r="AH35" s="2"/>
+      <c r="AH35" s="3"/>
       <c r="AI35" s="2"/>
-      <c r="AJ35" s="3"/>
+      <c r="AJ35" s="2"/>
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM35" s="3"/>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatHigh</v>
@@ -3618,10 +3668,10 @@
       <c r="I36" s="1">
         <v>39748</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36">
         <v>9</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36">
         <f t="shared" si="1"/>
         <v>181</v>
       </c>
@@ -3662,45 +3712,48 @@
         <v>137.51689814814816</v>
       </c>
       <c r="Y36" s="3">
+        <v>137.51689814814816</v>
+      </c>
+      <c r="Z36" s="3">
         <v>0.12907145403568368</v>
       </c>
-      <c r="Z36" s="5">
+      <c r="AA36" s="5">
         <v>2.8632677955678454</v>
       </c>
-      <c r="AA36" s="3">
+      <c r="AB36" s="3">
         <v>5.4739638318036636</v>
       </c>
-      <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
-      <c r="AD36" s="3">
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3">
         <v>21.676450219435225</v>
       </c>
-      <c r="AE36" s="3">
+      <c r="AF36" s="3">
         <v>17.349395538867149</v>
       </c>
-      <c r="AF36" s="3">
+      <c r="AG36" s="3">
         <v>13.466737938072859</v>
       </c>
-      <c r="AG36" s="3">
+      <c r="AH36" s="3">
         <v>0.1212043728584084</v>
       </c>
-      <c r="AH36" s="2">
+      <c r="AI36" s="2">
         <v>7276.5042254620184</v>
       </c>
-      <c r="AI36" s="2">
+      <c r="AJ36" s="2">
         <v>274.51037739827137</v>
       </c>
-      <c r="AJ36" s="3">
+      <c r="AK36" s="3">
         <v>21.764393982924414</v>
       </c>
-      <c r="AK36" s="3">
+      <c r="AL36" s="3">
         <v>19.747432274693761</v>
       </c>
-      <c r="AL36" s="3">
+      <c r="AM36" s="3">
         <v>1.594680804767807E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatLate</v>
@@ -3730,7 +3783,7 @@
         <v>39611</v>
       </c>
       <c r="J37" s="1"/>
-      <c r="K37" s="10">
+      <c r="K37">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -3752,23 +3805,24 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
-      <c r="Z37" s="5">
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="5">
         <v>1.6476972611159286</v>
       </c>
-      <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
-      <c r="AH37" s="2"/>
+      <c r="AH37" s="3"/>
       <c r="AI37" s="2"/>
-      <c r="AJ37" s="3"/>
+      <c r="AJ37" s="2"/>
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM37" s="3"/>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatLate</v>
@@ -3798,7 +3852,7 @@
         <v>39633</v>
       </c>
       <c r="J38" s="1"/>
-      <c r="K38" s="10">
+      <c r="K38">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
@@ -3824,25 +3878,26 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="3">
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="3">
         <v>1.4428603698742142</v>
       </c>
-      <c r="AB38" s="3">
+      <c r="AC38" s="3">
         <v>1.4958534427482736E-2</v>
       </c>
-      <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
-      <c r="AH38" s="2"/>
+      <c r="AH38" s="3"/>
       <c r="AI38" s="2"/>
-      <c r="AJ38" s="3"/>
+      <c r="AJ38" s="2"/>
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM38" s="3"/>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatLate</v>
@@ -3872,7 +3927,7 @@
         <v>39640</v>
       </c>
       <c r="J39" s="1"/>
-      <c r="K39" s="10">
+      <c r="K39">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
@@ -3900,31 +3955,32 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-      <c r="Z39" s="5">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="5">
         <v>8.1073614423232527</v>
       </c>
-      <c r="AA39" s="3">
+      <c r="AB39" s="3">
         <v>7.1193879512805012</v>
       </c>
-      <c r="AB39" s="3">
+      <c r="AC39" s="3">
         <v>0.12361582987656243</v>
       </c>
-      <c r="AC39" s="3">
+      <c r="AD39" s="3">
         <v>4.6326518832759458</v>
       </c>
-      <c r="AD39" s="3">
+      <c r="AE39" s="3">
         <v>2.5053158604554304</v>
       </c>
-      <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
-      <c r="AH39" s="2"/>
+      <c r="AH39" s="3"/>
       <c r="AI39" s="2"/>
-      <c r="AJ39" s="3"/>
+      <c r="AJ39" s="2"/>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM39" s="3"/>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatLate</v>
@@ -3954,7 +4010,7 @@
         <v>39655</v>
       </c>
       <c r="J40" s="1"/>
-      <c r="K40" s="10">
+      <c r="K40">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
@@ -3982,31 +4038,32 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-      <c r="Z40" s="5">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="5">
         <v>8.1073614423232812</v>
       </c>
-      <c r="AA40" s="3">
+      <c r="AB40" s="3">
         <v>16.747165234588572</v>
       </c>
-      <c r="AB40" s="3">
+      <c r="AC40" s="3">
         <v>0.24096804274454012</v>
       </c>
-      <c r="AC40" s="3">
+      <c r="AD40" s="3">
         <v>8.2501648817575717</v>
       </c>
-      <c r="AD40" s="3">
+      <c r="AE40" s="3">
         <v>8.5807656368719982</v>
       </c>
-      <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
-      <c r="AH40" s="2"/>
+      <c r="AH40" s="3"/>
       <c r="AI40" s="2"/>
-      <c r="AJ40" s="3"/>
+      <c r="AJ40" s="2"/>
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
-    </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM40" s="3"/>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatLate</v>
@@ -4036,7 +4093,7 @@
         <v>39668</v>
       </c>
       <c r="J41" s="1"/>
-      <c r="K41" s="10">
+      <c r="K41">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
@@ -4064,31 +4121,32 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
-      <c r="Z41" s="5">
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="5">
         <v>2.0531072061188089</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>20.486520780243758</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>0.23570016133683908</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>7.496762289883919</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>13.731171926960187</v>
       </c>
-      <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
-      <c r="AH41" s="2"/>
+      <c r="AH41" s="3"/>
       <c r="AI41" s="2"/>
-      <c r="AJ41" s="3"/>
+      <c r="AJ41" s="2"/>
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM41" s="3"/>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatLate</v>
@@ -4118,7 +4176,7 @@
         <v>39699</v>
       </c>
       <c r="J42" s="1"/>
-      <c r="K42" s="10">
+      <c r="K42">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
@@ -4146,31 +4204,32 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
-      <c r="Z42" s="5">
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="5">
         <v>6.5199475846535959</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>34.148196353002717</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>0.46248254347986656</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>13.426979986340445</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>28.009959815592271</v>
       </c>
-      <c r="AE42" s="3"/>
       <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
-      <c r="AH42" s="2"/>
+      <c r="AH42" s="3"/>
       <c r="AI42" s="2"/>
-      <c r="AJ42" s="3"/>
+      <c r="AJ42" s="2"/>
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM42" s="3"/>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatLate</v>
@@ -4199,10 +4258,10 @@
       <c r="I43" s="1">
         <v>39763</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43">
         <v>9</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43">
         <f t="shared" si="1"/>
         <v>187</v>
       </c>
@@ -4243,45 +4302,48 @@
         <v>168.4992768015928</v>
       </c>
       <c r="Y43" s="3">
+        <v>168.4992768015928</v>
+      </c>
+      <c r="Z43" s="3">
         <v>0.1596255699569015</v>
       </c>
-      <c r="Z43" s="5">
+      <c r="AA43" s="5">
         <v>1.6476972611159286</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>22.868048611400663</v>
       </c>
-      <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
-      <c r="AD43" s="3">
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3">
         <v>45.143667109835484</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>10.657323792288974</v>
       </c>
-      <c r="AF43" s="3">
+      <c r="AG43" s="3">
         <v>6.0870440089426214</v>
       </c>
-      <c r="AG43" s="3">
+      <c r="AH43" s="3">
         <v>8.5954808862953397E-2</v>
       </c>
-      <c r="AH43" s="2">
+      <c r="AI43" s="2">
         <v>15649.37752367145</v>
       </c>
-      <c r="AI43" s="2">
+      <c r="AJ43" s="2">
         <v>570.6433971436802</v>
       </c>
-      <c r="AJ43" s="3">
+      <c r="AK43" s="3">
         <v>17.02806644087778</v>
       </c>
-      <c r="AK43" s="3">
+      <c r="AL43" s="3">
         <v>8.4484906642539634</v>
       </c>
-      <c r="AL43" s="3">
+      <c r="AM43" s="3">
         <v>3.0796328121556358E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatLow</v>
@@ -4311,7 +4373,7 @@
         <v>39611</v>
       </c>
       <c r="J44" s="1"/>
-      <c r="K44" s="10">
+      <c r="K44">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -4339,31 +4401,32 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
-      <c r="Z44" s="5">
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="5">
         <v>0.76991520229461874</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>0.26563999267168009</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>5.3753362157398189E-3</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>0.21128397938968105</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>5.4356013281996421E-2</v>
       </c>
-      <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
-      <c r="AH44" s="2"/>
+      <c r="AH44" s="3"/>
       <c r="AI44" s="2"/>
-      <c r="AJ44" s="3"/>
+      <c r="AJ44" s="2"/>
       <c r="AK44" s="3"/>
       <c r="AL44" s="3"/>
-    </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM44" s="3"/>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatLow</v>
@@ -4393,7 +4456,7 @@
         <v>39633</v>
       </c>
       <c r="J45" s="1"/>
-      <c r="K45" s="10">
+      <c r="K45">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
@@ -4421,29 +4484,30 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="3">
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="3">
         <v>10.602284658651305</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>0.15762582618571425</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>5.8225661649970002</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>4.780146592041536</v>
       </c>
-      <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
-      <c r="AH45" s="2"/>
+      <c r="AH45" s="3"/>
       <c r="AI45" s="2"/>
-      <c r="AJ45" s="3"/>
+      <c r="AJ45" s="2"/>
       <c r="AK45" s="3"/>
       <c r="AL45" s="3"/>
-    </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM45" s="3"/>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatLow</v>
@@ -4473,7 +4537,7 @@
         <v>39640</v>
       </c>
       <c r="J46" s="1"/>
-      <c r="K46" s="10">
+      <c r="K46">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
@@ -4501,31 +4565,32 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
-      <c r="Z46" s="5">
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="5">
         <v>4.9213638021919639</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>33.762756196496142</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>0.48700597470512641</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>20.502917621819858</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>13.276809129298776</v>
       </c>
-      <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
-      <c r="AH46" s="2"/>
+      <c r="AH46" s="3"/>
       <c r="AI46" s="2"/>
-      <c r="AJ46" s="3"/>
+      <c r="AJ46" s="2"/>
       <c r="AK46" s="3"/>
       <c r="AL46" s="3"/>
-    </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM46" s="3"/>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatLow</v>
@@ -4555,7 +4620,7 @@
         <v>39655</v>
       </c>
       <c r="J47" s="1"/>
-      <c r="K47" s="10">
+      <c r="K47">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
@@ -4583,31 +4648,32 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
-      <c r="Z47" s="5">
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="5">
         <v>5.1484034930902149</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>25.031294251700295</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>0.41619145825811499</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>10.204374298460623</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>16.509339334656687</v>
       </c>
-      <c r="AE47" s="3"/>
       <c r="AF47" s="3"/>
       <c r="AG47" s="3"/>
-      <c r="AH47" s="2"/>
+      <c r="AH47" s="3"/>
       <c r="AI47" s="2"/>
-      <c r="AJ47" s="3"/>
+      <c r="AJ47" s="2"/>
       <c r="AK47" s="3"/>
       <c r="AL47" s="3"/>
-    </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM47" s="3"/>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatLow</v>
@@ -4637,7 +4703,7 @@
         <v>39668</v>
       </c>
       <c r="J48" s="1"/>
-      <c r="K48" s="10">
+      <c r="K48">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
@@ -4665,31 +4731,32 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
-      <c r="Z48" s="5">
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="5">
         <v>4.7439586879442563</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>34.469612770282708</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>0.37186477928424638</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>11.987004157582177</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>25.001852543478481</v>
       </c>
-      <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
       <c r="AG48" s="3"/>
-      <c r="AH48" s="2"/>
+      <c r="AH48" s="3"/>
       <c r="AI48" s="2"/>
-      <c r="AJ48" s="3"/>
+      <c r="AJ48" s="2"/>
       <c r="AK48" s="3"/>
       <c r="AL48" s="3"/>
-    </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM48" s="3"/>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatLow</v>
@@ -4719,7 +4786,7 @@
         <v>39681</v>
       </c>
       <c r="J49" s="1"/>
-      <c r="K49" s="10">
+      <c r="K49">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
@@ -4747,31 +4814,32 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
-      <c r="Z49" s="5">
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="5">
         <v>2.3907304606218776</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>44.420136628362769</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>0.50108218589513254</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>30.632242911851741</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>24.828073847240297</v>
       </c>
-      <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
-      <c r="AH49" s="2"/>
+      <c r="AH49" s="3"/>
       <c r="AI49" s="2"/>
-      <c r="AJ49" s="3"/>
+      <c r="AJ49" s="2"/>
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
-    </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM49" s="3"/>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatLow</v>
@@ -4800,10 +4868,10 @@
       <c r="I50" s="1">
         <v>39748</v>
       </c>
-      <c r="J50" s="10">
+      <c r="J50">
         <v>9</v>
       </c>
-      <c r="K50" s="10">
+      <c r="K50">
         <f t="shared" si="1"/>
         <v>181</v>
       </c>
@@ -4844,45 +4912,48 @@
         <v>161.86388888888888</v>
       </c>
       <c r="Y50" s="3">
+        <v>161.86388888888888</v>
+      </c>
+      <c r="Z50" s="3">
         <v>0.13136487540131295</v>
       </c>
-      <c r="Z50" s="5">
+      <c r="AA50" s="5">
         <v>2.8129206996231861</v>
       </c>
-      <c r="AA50" s="3">
+      <c r="AB50" s="3">
         <v>47.934954706221212</v>
       </c>
-      <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
-      <c r="AD50" s="3">
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3">
         <v>30.921386701905298</v>
       </c>
-      <c r="AE50" s="3">
+      <c r="AF50" s="3">
         <v>12.065068455144667</v>
       </c>
-      <c r="AF50" s="3">
+      <c r="AG50" s="3">
         <v>8.8482823584265997</v>
       </c>
-      <c r="AG50" s="3">
+      <c r="AH50" s="3">
         <v>0.10384844726812122</v>
       </c>
-      <c r="AH50" s="2">
+      <c r="AI50" s="2">
         <v>6082.1533141957007</v>
       </c>
-      <c r="AI50" s="2">
+      <c r="AJ50" s="2">
         <v>120.73295288872205</v>
       </c>
-      <c r="AJ50" s="3">
+      <c r="AK50" s="3">
         <v>34.056978401275053</v>
       </c>
-      <c r="AK50" s="3">
+      <c r="AL50" s="3">
         <v>7.222824474335364</v>
       </c>
-      <c r="AL50" s="3">
+      <c r="AM50" s="3">
         <v>6.8418886233867415E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatMid</v>
@@ -4912,7 +4983,7 @@
         <v>39611</v>
       </c>
       <c r="J51" s="1"/>
-      <c r="K51" s="10">
+      <c r="K51">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -4940,31 +5011,32 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
-      <c r="Z51" s="5">
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="5">
         <v>2.3270797757966175</v>
       </c>
-      <c r="AA51" s="3">
+      <c r="AB51" s="3">
         <v>0.80290069964424726</v>
       </c>
-      <c r="AB51" s="3">
+      <c r="AC51" s="3">
         <v>1.6247031047673777E-2</v>
       </c>
-      <c r="AC51" s="3">
+      <c r="AD51" s="3">
         <v>0.63860886747299583</v>
       </c>
-      <c r="AD51" s="3">
+      <c r="AE51" s="3">
         <v>0.16429183217124282</v>
       </c>
-      <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
-      <c r="AH51" s="2"/>
+      <c r="AH51" s="3"/>
       <c r="AI51" s="2"/>
-      <c r="AJ51" s="3"/>
+      <c r="AJ51" s="2"/>
       <c r="AK51" s="3"/>
       <c r="AL51" s="3"/>
-    </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM51" s="3"/>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatMid</v>
@@ -4994,7 +5066,7 @@
         <v>39633</v>
       </c>
       <c r="J52" s="1"/>
-      <c r="K52" s="10">
+      <c r="K52">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
@@ -5022,29 +5094,30 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="3">
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="3">
         <v>8.0305728108629886</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>0.11939178345149772</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>4.4102326092444821</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>3.6206644595855577</v>
       </c>
-      <c r="AE52" s="3"/>
       <c r="AF52" s="3"/>
       <c r="AG52" s="3"/>
-      <c r="AH52" s="2"/>
+      <c r="AH52" s="3"/>
       <c r="AI52" s="2"/>
-      <c r="AJ52" s="3"/>
+      <c r="AJ52" s="2"/>
       <c r="AK52" s="3"/>
       <c r="AL52" s="3"/>
-    </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM52" s="3"/>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatMid</v>
@@ -5074,7 +5147,7 @@
         <v>39640</v>
       </c>
       <c r="J53" s="1"/>
-      <c r="K53" s="10">
+      <c r="K53">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
@@ -5102,31 +5175,32 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
-      <c r="Z53" s="5">
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="5">
         <v>1.6905017206949846</v>
       </c>
-      <c r="AA53" s="3">
+      <c r="AB53" s="3">
         <v>11.850290457474628</v>
       </c>
-      <c r="AB53" s="3">
+      <c r="AC53" s="3">
         <v>0.160911606184963</v>
       </c>
-      <c r="AC53" s="3">
+      <c r="AD53" s="3">
         <v>6.9603057796393042</v>
       </c>
-      <c r="AD53" s="3">
+      <c r="AE53" s="3">
         <v>7.2243313204092221</v>
       </c>
-      <c r="AE53" s="3"/>
       <c r="AF53" s="3"/>
       <c r="AG53" s="3"/>
-      <c r="AH53" s="2"/>
+      <c r="AH53" s="3"/>
       <c r="AI53" s="2"/>
-      <c r="AJ53" s="3"/>
+      <c r="AJ53" s="2"/>
       <c r="AK53" s="3"/>
       <c r="AL53" s="3"/>
-    </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM53" s="3"/>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatMid</v>
@@ -5156,7 +5230,7 @@
         <v>39655</v>
       </c>
       <c r="J54" s="1"/>
-      <c r="K54" s="10">
+      <c r="K54">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
@@ -5184,31 +5258,32 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
-      <c r="Z54" s="5">
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="5">
         <v>3.0592943829628152</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>39.460115017432571</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>0.43174350839114034</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>15.331953168740107</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>26.020027013855174</v>
       </c>
-      <c r="AE54" s="3"/>
       <c r="AF54" s="3"/>
       <c r="AG54" s="3"/>
-      <c r="AH54" s="2"/>
+      <c r="AH54" s="3"/>
       <c r="AI54" s="2"/>
-      <c r="AJ54" s="3"/>
+      <c r="AJ54" s="2"/>
       <c r="AK54" s="3"/>
       <c r="AL54" s="3"/>
-    </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM54" s="3"/>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatMid</v>
@@ -5238,7 +5313,7 @@
         <v>39668</v>
       </c>
       <c r="J55" s="1"/>
-      <c r="K55" s="10">
+      <c r="K55">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
@@ -5266,31 +5341,32 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-      <c r="Z55" s="5">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="5">
         <v>4.979094384228909</v>
       </c>
-      <c r="AA55" s="3">
+      <c r="AB55" s="3">
         <v>58.222463572187152</v>
       </c>
-      <c r="AB55" s="3">
+      <c r="AC55" s="3">
         <v>0.41117372728255241</v>
       </c>
-      <c r="AC55" s="3">
+      <c r="AD55" s="3">
         <v>19.010704393089927</v>
       </c>
-      <c r="AD55" s="3">
+      <c r="AE55" s="3">
         <v>42.028371779392941</v>
       </c>
-      <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
       <c r="AG55" s="3"/>
-      <c r="AH55" s="2"/>
+      <c r="AH55" s="3"/>
       <c r="AI55" s="2"/>
-      <c r="AJ55" s="3"/>
+      <c r="AJ55" s="2"/>
       <c r="AK55" s="3"/>
       <c r="AL55" s="3"/>
-    </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM55" s="3"/>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatMid</v>
@@ -5320,7 +5396,7 @@
         <v>39682</v>
       </c>
       <c r="J56" s="1"/>
-      <c r="K56" s="10">
+      <c r="K56">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
@@ -5348,31 +5424,32 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-      <c r="Z56" s="5">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="5">
         <v>2.2680460581325224</v>
       </c>
-      <c r="AA56" s="3">
+      <c r="AB56" s="3">
         <v>50.794174046058394</v>
       </c>
-      <c r="AB56" s="3">
+      <c r="AC56" s="3">
         <v>0.58009284390710092</v>
       </c>
-      <c r="AC56" s="3">
+      <c r="AD56" s="3">
         <v>25.740287207044641</v>
       </c>
-      <c r="AD56" s="3">
+      <c r="AE56" s="3">
         <v>56.28242655021289</v>
       </c>
-      <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
       <c r="AG56" s="3"/>
-      <c r="AH56" s="2"/>
+      <c r="AH56" s="3"/>
       <c r="AI56" s="2"/>
-      <c r="AJ56" s="3"/>
+      <c r="AJ56" s="2"/>
       <c r="AK56" s="3"/>
       <c r="AL56" s="3"/>
-    </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM56" s="3"/>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvAV_GarnetTreatMid</v>
@@ -5401,10 +5478,10 @@
       <c r="I57" s="1">
         <v>39748</v>
       </c>
-      <c r="J57" s="10">
+      <c r="J57">
         <v>9</v>
       </c>
-      <c r="K57" s="10">
+      <c r="K57">
         <f t="shared" si="1"/>
         <v>181</v>
       </c>
@@ -5445,45 +5522,48 @@
         <v>198.99305555555554</v>
       </c>
       <c r="Y57" s="3">
+        <v>198.99305555555554</v>
+      </c>
+      <c r="Z57" s="3">
         <v>0.14951424406197117</v>
       </c>
-      <c r="Z57" s="5">
+      <c r="AA57" s="5">
         <v>3.2736425054932825</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>44.028795716574599</v>
       </c>
-      <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
-      <c r="AD57" s="3">
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3">
         <v>83.440314625131563</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>49.256366632276574</v>
       </c>
-      <c r="AF57" s="3">
+      <c r="AG57" s="3">
         <v>5.9232010216069195</v>
       </c>
-      <c r="AG57" s="3">
+      <c r="AH57" s="3">
         <v>0.27479731166807347</v>
       </c>
-      <c r="AH57" s="2">
+      <c r="AI57" s="2">
         <v>15172.995886541778</v>
       </c>
-      <c r="AI57" s="2">
+      <c r="AJ57" s="2">
         <v>1160.928546130415</v>
       </c>
-      <c r="AJ57" s="3">
+      <c r="AK57" s="3">
         <v>55.252766251290879</v>
       </c>
-      <c r="AK57" s="3">
+      <c r="AL57" s="3">
         <v>34.00275685768159</v>
       </c>
-      <c r="AL57" s="3">
+      <c r="AM57" s="3">
         <v>1.6838512560928193E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvATR_MarlinTreatHigh</v>
@@ -5513,7 +5593,7 @@
         <v>39611</v>
       </c>
       <c r="J58" s="1"/>
-      <c r="K58" s="10">
+      <c r="K58">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -5541,31 +5621,32 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
-      <c r="Z58" s="5">
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="5">
         <v>3.4430033470644359</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>0.62103172872673595</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1.2129614716624122E-2</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>0.49131657762608977</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>0.12971515110065171</v>
       </c>
-      <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
       <c r="AG58" s="3"/>
-      <c r="AH58" s="2"/>
+      <c r="AH58" s="3"/>
       <c r="AI58" s="2"/>
-      <c r="AJ58" s="3"/>
+      <c r="AJ58" s="2"/>
       <c r="AK58" s="3"/>
       <c r="AL58" s="3"/>
-    </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM58" s="3"/>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvATR_MarlinTreatHigh</v>
@@ -5595,7 +5676,7 @@
         <v>39633</v>
       </c>
       <c r="J59" s="1"/>
-      <c r="K59" s="10">
+      <c r="K59">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
@@ -5623,29 +5704,30 @@
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="3">
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="3">
         <v>5.8430999882472232</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>8.6870282470834337E-2</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3.208915567316148</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2.6344203532572887</v>
       </c>
-      <c r="AE59" s="3"/>
       <c r="AF59" s="3"/>
       <c r="AG59" s="3"/>
-      <c r="AH59" s="2"/>
+      <c r="AH59" s="3"/>
       <c r="AI59" s="2"/>
-      <c r="AJ59" s="3"/>
+      <c r="AJ59" s="2"/>
       <c r="AK59" s="3"/>
       <c r="AL59" s="3"/>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM59" s="3"/>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvATR_MarlinTreatHigh</v>
@@ -5675,7 +5757,7 @@
         <v>39640</v>
       </c>
       <c r="J60" s="1"/>
-      <c r="K60" s="10">
+      <c r="K60">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
@@ -5703,31 +5785,32 @@
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
-      <c r="Z60" s="5">
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="5">
         <v>6.612433730132266</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>14.58624273709504</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>0.23417618559962922</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>7.4251057018185858</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>7.3618864919193268</v>
       </c>
-      <c r="AE60" s="3"/>
       <c r="AF60" s="3"/>
       <c r="AG60" s="3"/>
-      <c r="AH60" s="2"/>
+      <c r="AH60" s="3"/>
       <c r="AI60" s="2"/>
-      <c r="AJ60" s="3"/>
+      <c r="AJ60" s="2"/>
       <c r="AK60" s="3"/>
       <c r="AL60" s="3"/>
-    </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM60" s="3"/>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvATR_MarlinTreatHigh</v>
@@ -5757,7 +5840,7 @@
         <v>39655</v>
       </c>
       <c r="J61" s="1"/>
-      <c r="K61" s="10">
+      <c r="K61">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
@@ -5785,31 +5868,32 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
-      <c r="Z61" s="5">
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="5">
         <v>8.2946633644300203</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>14.43856882242093</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>0.19134794882701775</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>7.5391368904511751</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>8.1568377374331682</v>
       </c>
-      <c r="AE61" s="3"/>
       <c r="AF61" s="3"/>
       <c r="AG61" s="3"/>
-      <c r="AH61" s="2"/>
+      <c r="AH61" s="3"/>
       <c r="AI61" s="2"/>
-      <c r="AJ61" s="3"/>
+      <c r="AJ61" s="2"/>
       <c r="AK61" s="3"/>
       <c r="AL61" s="3"/>
-    </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM61" s="3"/>
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvATR_MarlinTreatHigh</v>
@@ -5839,7 +5923,7 @@
         <v>39668</v>
       </c>
       <c r="J62" s="1"/>
-      <c r="K62" s="10">
+      <c r="K62">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
@@ -5867,31 +5951,32 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
-      <c r="Z62" s="5">
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="5">
         <v>2.4497697324672782</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>21.311093114748672</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>0.25673110206516103</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>15.452435399889794</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>20.824578070024902</v>
       </c>
-      <c r="AE62" s="3"/>
       <c r="AF62" s="3"/>
       <c r="AG62" s="3"/>
-      <c r="AH62" s="2"/>
+      <c r="AH62" s="3"/>
       <c r="AI62" s="2"/>
-      <c r="AJ62" s="3"/>
+      <c r="AJ62" s="2"/>
       <c r="AK62" s="3"/>
       <c r="AL62" s="3"/>
-    </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM62" s="3"/>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvATR_MarlinTreatHigh</v>
@@ -5921,7 +6006,7 @@
         <v>39687</v>
       </c>
       <c r="J63" s="1"/>
-      <c r="K63" s="10">
+      <c r="K63">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
@@ -5949,31 +6034,32 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
-      <c r="Z63" s="5">
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="5">
         <v>6.8876276556856055</v>
       </c>
-      <c r="AA63" s="3">
+      <c r="AB63" s="3">
         <v>63.226747957146401</v>
       </c>
-      <c r="AB63" s="3">
+      <c r="AC63" s="3">
         <v>0.10963668183828536</v>
       </c>
-      <c r="AC63" s="3">
+      <c r="AD63" s="3">
         <v>14.062595370280865</v>
       </c>
-      <c r="AD63" s="3">
+      <c r="AE63" s="3">
         <v>56.715177848719605</v>
       </c>
-      <c r="AE63" s="3"/>
       <c r="AF63" s="3"/>
       <c r="AG63" s="3"/>
-      <c r="AH63" s="2"/>
+      <c r="AH63" s="3"/>
       <c r="AI63" s="2"/>
-      <c r="AJ63" s="3"/>
+      <c r="AJ63" s="2"/>
       <c r="AK63" s="3"/>
       <c r="AL63" s="3"/>
-    </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM63" s="3"/>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvATR_MarlinTreatHigh</v>
@@ -6002,10 +6088,10 @@
       <c r="I64" s="1">
         <v>39749</v>
       </c>
-      <c r="J64" s="10">
+      <c r="J64">
         <v>9</v>
       </c>
-      <c r="K64" s="10">
+      <c r="K64">
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
@@ -6046,45 +6132,48 @@
         <v>163.59814814814817</v>
       </c>
       <c r="Y64" s="3">
+        <v>163.59814814814817</v>
+      </c>
+      <c r="Z64" s="3">
         <v>0.16769423693079466</v>
       </c>
-      <c r="Z64" s="5">
+      <c r="AA64" s="5">
         <v>3.9532989066202222</v>
       </c>
-      <c r="AA64" s="3">
+      <c r="AB64" s="3">
         <v>24.093906073337905</v>
       </c>
-      <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
-      <c r="AD64" s="3">
+      <c r="AD64" s="3"/>
+      <c r="AE64" s="3">
         <v>43.697740490275606</v>
       </c>
-      <c r="AE64" s="3">
+      <c r="AF64" s="3">
         <v>20.236711090675676</v>
       </c>
-      <c r="AF64" s="3">
+      <c r="AG64" s="3">
         <v>4.0972847784163813</v>
       </c>
-      <c r="AG64" s="3">
+      <c r="AH64" s="3">
         <v>0.18969202012736275</v>
       </c>
-      <c r="AH64" s="2">
+      <c r="AI64" s="2">
         <v>23917.968695265157</v>
       </c>
-      <c r="AI64" s="2">
+      <c r="AJ64" s="2">
         <v>463.3763982467284</v>
       </c>
-      <c r="AJ64" s="3">
+      <c r="AK64" s="3">
         <v>40.709622250296547</v>
       </c>
-      <c r="AK64" s="3">
+      <c r="AL64" s="3">
         <v>20.29061245758119</v>
       </c>
-      <c r="AL64" s="3">
+      <c r="AM64" s="3">
         <v>1.8344854302389708E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvATR_MarlinTreatLate</v>
@@ -6114,7 +6203,7 @@
         <v>39611</v>
       </c>
       <c r="J65" s="1"/>
-      <c r="K65" s="10">
+      <c r="K65">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -6136,23 +6225,24 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
-      <c r="Z65" s="5">
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="5">
         <v>4.8611111111110876</v>
       </c>
-      <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
       <c r="AD65" s="3"/>
       <c r="AE65" s="3"/>
       <c r="AF65" s="3"/>
       <c r="AG65" s="3"/>
-      <c r="AH65" s="2"/>
+      <c r="AH65" s="3"/>
       <c r="AI65" s="2"/>
-      <c r="AJ65" s="3"/>
+      <c r="AJ65" s="2"/>
       <c r="AK65" s="3"/>
       <c r="AL65" s="3"/>
-    </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM65" s="3"/>
+    </row>
+    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>Wagga2008CvATR_MarlinTreatLate</v>
@@ -6182,7 +6272,7 @@
         <v>39633</v>
       </c>
       <c r="J66" s="1"/>
-      <c r="K66" s="10">
+      <c r="K66">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
@@ -6208,25 +6298,26 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="3">
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="3">
         <v>1.8348912549119958</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3.1811495975973679E-2</v>
       </c>
-      <c r="AC66" s="3"/>
       <c r="AD66" s="3"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3"/>
       <c r="AG66" s="3"/>
-      <c r="AH66" s="2"/>
+      <c r="AH66" s="3"/>
       <c r="AI66" s="2"/>
-      <c r="AJ66" s="3"/>
+      <c r="AJ66" s="2"/>
       <c r="AK66" s="3"/>
       <c r="AL66" s="3"/>
-    </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM66" s="3"/>
+    </row>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A85" si="2">C67&amp;B67&amp;"Cv"&amp;D67&amp;"Treat"&amp;E67</f>
         <v>Wagga2008CvATR_MarlinTreatLate</v>
@@ -6256,7 +6347,7 @@
         <v>39640</v>
       </c>
       <c r="J67" s="1"/>
-      <c r="K67" s="10">
+      <c r="K67">
         <f t="shared" ref="K67:K85" si="3">I67-H67</f>
         <v>64</v>
       </c>
@@ -6284,31 +6375,32 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-      <c r="Z67" s="5">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="5">
         <v>6.7831052394555353</v>
       </c>
-      <c r="AA67" s="3">
+      <c r="AB67" s="3">
         <v>1.6843683976303339</v>
       </c>
-      <c r="AB67" s="3">
+      <c r="AC67" s="3">
         <v>3.3708354655338606E-2</v>
       </c>
-      <c r="AC67" s="3">
+      <c r="AD67" s="3">
         <v>1.0320773949850239</v>
       </c>
-      <c r="AD67" s="3">
+      <c r="AE67" s="3">
         <v>0.67850510428449595</v>
       </c>
-      <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
       <c r="AG67" s="3"/>
-      <c r="AH67" s="2"/>
+      <c r="AH67" s="3"/>
       <c r="AI67" s="2"/>
-      <c r="AJ67" s="3"/>
+      <c r="AJ67" s="2"/>
       <c r="AK67" s="3"/>
       <c r="AL67" s="3"/>
-    </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM67" s="3"/>
+    </row>
+    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
         <v>Wagga2008CvATR_MarlinTreatLate</v>
@@ -6338,7 +6430,7 @@
         <v>39655</v>
       </c>
       <c r="J68" s="1"/>
-      <c r="K68" s="10">
+      <c r="K68">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
@@ -6366,31 +6458,32 @@
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
-      <c r="Z68" s="5">
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="5">
         <v>8.9930878298354795</v>
       </c>
-      <c r="AA68" s="3">
+      <c r="AB68" s="3">
         <v>11.415426596982908</v>
       </c>
-      <c r="AB68" s="3">
+      <c r="AC68" s="3">
         <v>0.17659550312035166</v>
       </c>
-      <c r="AC68" s="3">
+      <c r="AD68" s="3">
         <v>7.8954136192665176</v>
       </c>
-      <c r="AD68" s="3">
+      <c r="AE68" s="3">
         <v>3.5308997193122669</v>
       </c>
-      <c r="AE68" s="3"/>
       <c r="AF68" s="3"/>
       <c r="AG68" s="3"/>
-      <c r="AH68" s="2"/>
+      <c r="AH68" s="3"/>
       <c r="AI68" s="2"/>
-      <c r="AJ68" s="3"/>
+      <c r="AJ68" s="2"/>
       <c r="AK68" s="3"/>
       <c r="AL68" s="3"/>
-    </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM68" s="3"/>
+    </row>
+    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
         <v>Wagga2008CvATR_MarlinTreatLate</v>
@@ -6420,7 +6513,7 @@
         <v>39668</v>
       </c>
       <c r="J69" s="1"/>
-      <c r="K69" s="10">
+      <c r="K69">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
@@ -6448,31 +6541,32 @@
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
-      <c r="Z69" s="5">
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="5">
         <v>2.6189140043946688</v>
       </c>
-      <c r="AA69" s="3">
+      <c r="AB69" s="3">
         <v>9.0430099700576356</v>
       </c>
-      <c r="AB69" s="3">
+      <c r="AC69" s="3">
         <v>0.15695233088834093</v>
       </c>
-      <c r="AC69" s="3">
+      <c r="AD69" s="3">
         <v>3.9125889771584799</v>
       </c>
-      <c r="AD69" s="3">
+      <c r="AE69" s="3">
         <v>5.4639955416850059</v>
       </c>
-      <c r="AE69" s="3"/>
       <c r="AF69" s="3"/>
       <c r="AG69" s="3"/>
-      <c r="AH69" s="2"/>
+      <c r="AH69" s="3"/>
       <c r="AI69" s="2"/>
-      <c r="AJ69" s="3"/>
+      <c r="AJ69" s="2"/>
       <c r="AK69" s="3"/>
       <c r="AL69" s="3"/>
-    </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM69" s="3"/>
+    </row>
+    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>Wagga2008CvATR_MarlinTreatLate</v>
@@ -6502,7 +6596,7 @@
         <v>39708</v>
       </c>
       <c r="J70" s="1"/>
-      <c r="K70" s="10">
+      <c r="K70">
         <f t="shared" si="3"/>
         <v>132</v>
       </c>
@@ -6530,31 +6624,32 @@
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
-      <c r="Z70" s="5">
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="5">
         <v>5.4713265127270994</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AB70" s="3">
         <v>39.731913573981558</v>
       </c>
-      <c r="AB70" s="3">
+      <c r="AC70" s="3">
         <v>0.42737624769891663</v>
       </c>
-      <c r="AC70" s="3">
+      <c r="AD70" s="3">
         <v>18.505480148535433</v>
       </c>
-      <c r="AD70" s="3">
+      <c r="AE70" s="3">
         <v>23.322853094939571</v>
       </c>
-      <c r="AE70" s="3"/>
       <c r="AF70" s="3"/>
       <c r="AG70" s="3"/>
-      <c r="AH70" s="2"/>
+      <c r="AH70" s="3"/>
       <c r="AI70" s="2"/>
-      <c r="AJ70" s="3"/>
+      <c r="AJ70" s="2"/>
       <c r="AK70" s="3"/>
       <c r="AL70" s="3"/>
-    </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM70" s="3"/>
+    </row>
+    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>Wagga2008CvATR_MarlinTreatLate</v>
@@ -6583,10 +6678,10 @@
       <c r="I71" s="1">
         <v>39763</v>
       </c>
-      <c r="J71" s="10">
+      <c r="J71">
         <v>9</v>
       </c>
-      <c r="K71" s="10">
+      <c r="K71">
         <f t="shared" si="3"/>
         <v>187</v>
       </c>
@@ -6627,45 +6722,48 @@
         <v>126.99166666666667</v>
       </c>
       <c r="Y71" s="3">
+        <v>126.99166666666667</v>
+      </c>
+      <c r="Z71" s="3">
         <v>0.14817914676684454</v>
       </c>
-      <c r="Z71" s="5">
+      <c r="AA71" s="5">
         <v>4.8611111111111027</v>
       </c>
-      <c r="AA71" s="3">
+      <c r="AB71" s="3">
         <v>47.261410418866276</v>
       </c>
-      <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
-      <c r="AD71" s="3">
+      <c r="AD71" s="3"/>
+      <c r="AE71" s="3">
         <v>34.329401394734688</v>
       </c>
-      <c r="AE71" s="3">
+      <c r="AF71" s="3">
         <v>24.377899100877755</v>
       </c>
-      <c r="AF71" s="3">
+      <c r="AG71" s="3">
         <v>2.4077368008273781</v>
       </c>
-      <c r="AG71" s="3">
+      <c r="AH71" s="3">
         <v>7.1707013836397854E-2</v>
       </c>
-      <c r="AH71" s="2">
+      <c r="AI71" s="2">
         <v>17135.130325381764</v>
       </c>
-      <c r="AI71" s="2">
+      <c r="AJ71" s="2">
         <v>997.10363568273772</v>
       </c>
-      <c r="AJ71" s="3">
+      <c r="AK71" s="3">
         <v>12.303110725569875</v>
       </c>
-      <c r="AK71" s="3">
+      <c r="AL71" s="3">
         <v>18.200867689424005</v>
       </c>
-      <c r="AL71" s="3">
+      <c r="AM71" s="3">
         <v>1.1817984780042505E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>Wagga2008CvATR_MarlinTreatLow</v>
@@ -6695,7 +6793,7 @@
         <v>39611</v>
       </c>
       <c r="J72" s="1"/>
-      <c r="K72" s="10">
+      <c r="K72">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
@@ -6723,31 +6821,32 @@
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
-      <c r="Z72" s="5">
+      <c r="Z72" s="3"/>
+      <c r="AA72" s="5">
         <v>1.0134201802904066</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>0.18279566501988348</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>3.570253959658533E-3</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>0.14461505972743643</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>3.8180605292440419E-2</v>
       </c>
-      <c r="AE72" s="3"/>
       <c r="AF72" s="3"/>
       <c r="AG72" s="3"/>
-      <c r="AH72" s="2"/>
+      <c r="AH72" s="3"/>
       <c r="AI72" s="2"/>
-      <c r="AJ72" s="3"/>
+      <c r="AJ72" s="2"/>
       <c r="AK72" s="3"/>
       <c r="AL72" s="3"/>
-    </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM72" s="3"/>
+    </row>
+    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
         <v>Wagga2008CvATR_MarlinTreatLow</v>
@@ -6777,7 +6876,7 @@
         <v>39633</v>
       </c>
       <c r="J73" s="1"/>
-      <c r="K73" s="10">
+      <c r="K73">
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
@@ -6805,29 +6904,30 @@
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="3">
+      <c r="Z73" s="3"/>
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="3">
         <v>8.2270684749433336</v>
       </c>
-      <c r="AB73" s="3">
+      <c r="AC73" s="3">
         <v>0.12231311525777819</v>
       </c>
-      <c r="AC73" s="3">
+      <c r="AD73" s="3">
         <v>4.5181441624688476</v>
       </c>
-      <c r="AD73" s="3">
+      <c r="AE73" s="3">
         <v>3.7092565045310968</v>
       </c>
-      <c r="AE73" s="3"/>
       <c r="AF73" s="3"/>
       <c r="AG73" s="3"/>
-      <c r="AH73" s="2"/>
+      <c r="AH73" s="3"/>
       <c r="AI73" s="2"/>
-      <c r="AJ73" s="3"/>
+      <c r="AJ73" s="2"/>
       <c r="AK73" s="3"/>
       <c r="AL73" s="3"/>
-    </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM73" s="3"/>
+    </row>
+    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>Wagga2008CvATR_MarlinTreatLow</v>
@@ -6857,7 +6957,7 @@
         <v>39640</v>
       </c>
       <c r="J74" s="1"/>
-      <c r="K74" s="10">
+      <c r="K74">
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
@@ -6885,31 +6985,32 @@
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
-      <c r="Z74" s="5">
+      <c r="Z74" s="3"/>
+      <c r="AA74" s="5">
         <v>2.7258521192369871</v>
       </c>
-      <c r="AA74" s="3">
+      <c r="AB74" s="3">
         <v>7.2374636707371138</v>
       </c>
-      <c r="AB74" s="3">
+      <c r="AC74" s="3">
         <v>0.100761782167181</v>
       </c>
-      <c r="AC74" s="3">
+      <c r="AD74" s="3">
         <v>3.9811344920398288</v>
       </c>
-      <c r="AD74" s="3">
+      <c r="AE74" s="3">
         <v>3.5414562803747112</v>
       </c>
-      <c r="AE74" s="3"/>
       <c r="AF74" s="3"/>
       <c r="AG74" s="3"/>
-      <c r="AH74" s="2"/>
+      <c r="AH74" s="3"/>
       <c r="AI74" s="2"/>
-      <c r="AJ74" s="3"/>
+      <c r="AJ74" s="2"/>
       <c r="AK74" s="3"/>
       <c r="AL74" s="3"/>
-    </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM74" s="3"/>
+    </row>
+    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>Wagga2008CvATR_MarlinTreatLow</v>
@@ -6939,7 +7040,7 @@
         <v>39655</v>
       </c>
       <c r="J75" s="1"/>
-      <c r="K75" s="10">
+      <c r="K75">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
@@ -6967,31 +7068,32 @@
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
-      <c r="Z75" s="5">
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="5">
         <v>2.9644093691818676</v>
       </c>
-      <c r="AA75" s="3">
+      <c r="AB75" s="3">
         <v>29.734113393131338</v>
       </c>
-      <c r="AB75" s="3">
+      <c r="AC75" s="3">
         <v>0.30817028195706103</v>
       </c>
-      <c r="AC75" s="3">
+      <c r="AD75" s="3">
         <v>13.844321660301084</v>
       </c>
-      <c r="AD75" s="3">
+      <c r="AE75" s="3">
         <v>16.711248991690315</v>
       </c>
-      <c r="AE75" s="3"/>
       <c r="AF75" s="3"/>
       <c r="AG75" s="3"/>
-      <c r="AH75" s="2"/>
+      <c r="AH75" s="3"/>
       <c r="AI75" s="2"/>
-      <c r="AJ75" s="3"/>
+      <c r="AJ75" s="2"/>
       <c r="AK75" s="3"/>
       <c r="AL75" s="3"/>
-    </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM75" s="3"/>
+    </row>
+    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>Wagga2008CvATR_MarlinTreatLow</v>
@@ -7021,7 +7123,7 @@
         <v>39668</v>
       </c>
       <c r="J76" s="1"/>
-      <c r="K76" s="10">
+      <c r="K76">
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
@@ -7049,31 +7151,32 @@
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
-      <c r="Z76" s="5">
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="5">
         <v>9.603924618828156</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>27.152123243283121</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>0.29793994994317741</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>11.654937913486764</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>15.691087364489215</v>
       </c>
-      <c r="AE76" s="3"/>
       <c r="AF76" s="3"/>
       <c r="AG76" s="3"/>
-      <c r="AH76" s="2"/>
+      <c r="AH76" s="3"/>
       <c r="AI76" s="2"/>
-      <c r="AJ76" s="3"/>
+      <c r="AJ76" s="2"/>
       <c r="AK76" s="3"/>
       <c r="AL76" s="3"/>
-    </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM76" s="3"/>
+    </row>
+    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>Wagga2008CvATR_MarlinTreatLow</v>
@@ -7103,7 +7206,7 @@
         <v>39684</v>
       </c>
       <c r="J77" s="1"/>
-      <c r="K77" s="10">
+      <c r="K77">
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
@@ -7131,31 +7234,32 @@
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
-      <c r="Z77" s="5">
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="5">
         <v>5.3123192833513917</v>
       </c>
-      <c r="AA77" s="3">
+      <c r="AB77" s="3">
         <v>59.901570880619872</v>
       </c>
-      <c r="AB77" s="3">
+      <c r="AC77" s="3">
         <v>0.61204201204367181</v>
       </c>
-      <c r="AC77" s="3">
+      <c r="AD77" s="3">
         <v>25.770027762806887</v>
       </c>
-      <c r="AD77" s="3">
+      <c r="AE77" s="3">
         <v>34.874259227167002</v>
       </c>
-      <c r="AE77" s="3"/>
       <c r="AF77" s="3"/>
       <c r="AG77" s="3"/>
-      <c r="AH77" s="2"/>
+      <c r="AH77" s="3"/>
       <c r="AI77" s="2"/>
-      <c r="AJ77" s="3"/>
+      <c r="AJ77" s="2"/>
       <c r="AK77" s="3"/>
       <c r="AL77" s="3"/>
-    </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM77" s="3"/>
+    </row>
+    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>Wagga2008CvATR_MarlinTreatLow</v>
@@ -7184,10 +7288,10 @@
       <c r="I78" s="1">
         <v>39749</v>
       </c>
-      <c r="J78" s="10">
+      <c r="J78">
         <v>9</v>
       </c>
-      <c r="K78" s="10">
+      <c r="K78">
         <f t="shared" si="3"/>
         <v>182</v>
       </c>
@@ -7228,45 +7332,48 @@
         <v>208.57199074074074</v>
       </c>
       <c r="Y78" s="3">
+        <v>208.57199074074074</v>
+      </c>
+      <c r="Z78" s="3">
         <v>0.18016017588553357</v>
       </c>
-      <c r="Z78" s="5">
+      <c r="AA78" s="5">
         <v>2.2162664531396734</v>
       </c>
-      <c r="AA78" s="3">
+      <c r="AB78" s="3">
         <v>21.874424685016525</v>
       </c>
-      <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
-      <c r="AD78" s="3">
+      <c r="AD78" s="3"/>
+      <c r="AE78" s="3">
         <v>33.963795292778478</v>
       </c>
-      <c r="AE78" s="3">
+      <c r="AF78" s="3">
         <v>21.627535031201013</v>
       </c>
-      <c r="AF78" s="3">
+      <c r="AG78" s="3">
         <v>6.8379927404754595</v>
       </c>
-      <c r="AG78" s="3">
+      <c r="AH78" s="3">
         <v>0.11463601819091031</v>
       </c>
-      <c r="AH78" s="2">
+      <c r="AI78" s="2">
         <v>19028.483803308376</v>
       </c>
-      <c r="AI78" s="2">
+      <c r="AJ78" s="2">
         <v>773.95012079848004</v>
       </c>
-      <c r="AJ78" s="3">
+      <c r="AK78" s="3">
         <v>53.579534211002802</v>
       </c>
-      <c r="AK78" s="3">
+      <c r="AL78" s="3">
         <v>16.457088701071832</v>
       </c>
-      <c r="AL78" s="3">
+      <c r="AM78" s="3">
         <v>1.1129064835374528E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>Wagga2008CvATR_MarlinTreatMid</v>
@@ -7296,7 +7403,7 @@
         <v>39611</v>
       </c>
       <c r="J79" s="1"/>
-      <c r="K79" s="10">
+      <c r="K79">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
@@ -7324,31 +7431,32 @@
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
-      <c r="Z79" s="5">
+      <c r="Z79" s="3"/>
+      <c r="AA79" s="5">
         <v>2.742184512950089</v>
       </c>
-      <c r="AA79" s="3">
+      <c r="AB79" s="3">
         <v>0.49462153152338162</v>
       </c>
-      <c r="AB79" s="3">
+      <c r="AC79" s="3">
         <v>9.6606474845104713E-3</v>
       </c>
-      <c r="AC79" s="3">
+      <c r="AD79" s="3">
         <v>0.39130972999798314</v>
       </c>
-      <c r="AD79" s="3">
+      <c r="AE79" s="3">
         <v>0.10331180152539648</v>
       </c>
-      <c r="AE79" s="3"/>
       <c r="AF79" s="3"/>
       <c r="AG79" s="3"/>
-      <c r="AH79" s="2"/>
+      <c r="AH79" s="3"/>
       <c r="AI79" s="2"/>
-      <c r="AJ79" s="3"/>
+      <c r="AJ79" s="2"/>
       <c r="AK79" s="3"/>
       <c r="AL79" s="3"/>
-    </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM79" s="3"/>
+    </row>
+    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>Wagga2008CvATR_MarlinTreatMid</v>
@@ -7378,7 +7486,7 @@
         <v>39633</v>
       </c>
       <c r="J80" s="1"/>
-      <c r="K80" s="10">
+      <c r="K80">
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
@@ -7406,29 +7514,30 @@
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
-      <c r="Z80" s="5"/>
-      <c r="AA80" s="3">
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="3">
         <v>4.2625153804402007</v>
       </c>
-      <c r="AB80" s="3">
+      <c r="AC80" s="3">
         <v>6.3371483609711926E-2</v>
       </c>
-      <c r="AC80" s="3">
+      <c r="AD80" s="3">
         <v>2.3408895941762018</v>
       </c>
-      <c r="AD80" s="3">
+      <c r="AE80" s="3">
         <v>1.9217978978436472</v>
       </c>
-      <c r="AE80" s="3"/>
       <c r="AF80" s="3"/>
       <c r="AG80" s="3"/>
-      <c r="AH80" s="2"/>
+      <c r="AH80" s="3"/>
       <c r="AI80" s="2"/>
-      <c r="AJ80" s="3"/>
+      <c r="AJ80" s="2"/>
       <c r="AK80" s="3"/>
       <c r="AL80" s="3"/>
-    </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AM80" s="3"/>
+    </row>
+    <row r="81" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>Wagga2008CvATR_MarlinTreatMid</v>
@@ -7458,7 +7567,7 @@
         <v>39640</v>
       </c>
       <c r="J81" s="1"/>
-      <c r="K81" s="10">
+      <c r="K81">
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
@@ -7486,31 +7595,32 @@
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
-      <c r="Z81" s="5">
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="5">
         <v>4.979094384228909</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>9.3709726918837752</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>0.16643639221883622</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>4.4243469196111471</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>4.953717637068392</v>
       </c>
-      <c r="AE81" s="3"/>
       <c r="AF81" s="3"/>
       <c r="AG81" s="3"/>
-      <c r="AH81" s="2"/>
+      <c r="AH81" s="3"/>
       <c r="AI81" s="2"/>
-      <c r="AJ81" s="3"/>
+      <c r="AJ81" s="2"/>
       <c r="AK81" s="3"/>
       <c r="AL81" s="3"/>
-    </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AM81" s="3"/>
+    </row>
+    <row r="82" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
         <v>Wagga2008CvATR_MarlinTreatMid</v>
@@ -7540,7 +7650,7 @@
         <v>39655</v>
       </c>
       <c r="J82" s="1"/>
-      <c r="K82" s="10">
+      <c r="K82">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
@@ -7568,31 +7678,32 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-      <c r="Z82" s="5">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="5">
         <v>4.7439586879442563</v>
       </c>
-      <c r="AA82" s="3">
+      <c r="AB82" s="3">
         <v>20.470100494151335</v>
       </c>
-      <c r="AB82" s="3">
+      <c r="AC82" s="3">
         <v>0.21018975996529815</v>
       </c>
-      <c r="AC82" s="3">
+      <c r="AD82" s="3">
         <v>9.3843852012717779</v>
       </c>
-      <c r="AD82" s="3">
+      <c r="AE82" s="3">
         <v>12.836458491274438</v>
       </c>
-      <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
       <c r="AG82" s="3"/>
-      <c r="AH82" s="2"/>
+      <c r="AH82" s="3"/>
       <c r="AI82" s="2"/>
-      <c r="AJ82" s="3"/>
+      <c r="AJ82" s="2"/>
       <c r="AK82" s="3"/>
       <c r="AL82" s="3"/>
-    </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AM82" s="3"/>
+    </row>
+    <row r="83" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
         <v>Wagga2008CvATR_MarlinTreatMid</v>
@@ -7622,7 +7733,7 @@
         <v>39668</v>
       </c>
       <c r="J83" s="1"/>
-      <c r="K83" s="10">
+      <c r="K83">
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
@@ -7650,31 +7761,32 @@
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
-      <c r="Z83" s="5">
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="5">
         <v>4.5360921162651282</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>22.412803085263413</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>0.30445401626449486</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>11.925083538547925</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>17.074916686886848</v>
       </c>
-      <c r="AE83" s="3"/>
       <c r="AF83" s="3"/>
       <c r="AG83" s="3"/>
-      <c r="AH83" s="2"/>
+      <c r="AH83" s="3"/>
       <c r="AI83" s="2"/>
-      <c r="AJ83" s="3"/>
+      <c r="AJ83" s="2"/>
       <c r="AK83" s="3"/>
       <c r="AL83" s="3"/>
-    </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AM83" s="3"/>
+    </row>
+    <row r="84" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
         <v>Wagga2008CvATR_MarlinTreatMid</v>
@@ -7704,7 +7816,7 @@
         <v>39687</v>
       </c>
       <c r="J84" s="1"/>
-      <c r="K84" s="10">
+      <c r="K84">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
@@ -7732,31 +7844,32 @@
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
-      <c r="Z84" s="5">
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="5">
         <v>2.4351441108116472</v>
       </c>
-      <c r="AA84" s="3">
+      <c r="AB84" s="3">
         <v>77.590489063983981</v>
       </c>
-      <c r="AB84" s="3">
+      <c r="AC84" s="3">
         <v>0.39417864251927276</v>
       </c>
-      <c r="AC84" s="3">
+      <c r="AD84" s="3">
         <v>18.994740581537506</v>
       </c>
-      <c r="AD84" s="3">
+      <c r="AE84" s="3">
         <v>75.219163891856567</v>
       </c>
-      <c r="AE84" s="3"/>
       <c r="AF84" s="3"/>
       <c r="AG84" s="3"/>
-      <c r="AH84" s="2"/>
+      <c r="AH84" s="3"/>
       <c r="AI84" s="2"/>
-      <c r="AJ84" s="3"/>
+      <c r="AJ84" s="2"/>
       <c r="AK84" s="3"/>
       <c r="AL84" s="3"/>
-    </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AM84" s="3"/>
+    </row>
+    <row r="85" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
         <v>Wagga2008CvATR_MarlinTreatMid</v>
@@ -7785,10 +7898,10 @@
       <c r="I85" s="1">
         <v>39749</v>
       </c>
-      <c r="J85" s="10">
+      <c r="J85">
         <v>9</v>
       </c>
-      <c r="K85" s="10">
+      <c r="K85">
         <f t="shared" si="3"/>
         <v>182</v>
       </c>
@@ -7829,45 +7942,48 @@
         <v>139.63032407407405</v>
       </c>
       <c r="Y85" s="3">
+        <v>139.63032407407405</v>
+      </c>
+      <c r="Z85" s="3">
         <v>0.14550992672696331</v>
       </c>
-      <c r="Z85" s="5">
+      <c r="AA85" s="5">
         <v>3.4722222222222134</v>
       </c>
-      <c r="AA85" s="3">
+      <c r="AB85" s="3">
         <v>32.834803487168401</v>
       </c>
-      <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
-      <c r="AD85" s="3">
+      <c r="AD85" s="3"/>
+      <c r="AE85" s="3">
         <v>40.399310605759368</v>
       </c>
-      <c r="AE85" s="3">
+      <c r="AF85" s="3">
         <v>11.412395734338538</v>
       </c>
-      <c r="AF85" s="3">
+      <c r="AG85" s="3">
         <v>8.9055691416646177</v>
       </c>
-      <c r="AG85" s="3">
+      <c r="AH85" s="3">
         <v>0.1683653641142776</v>
       </c>
-      <c r="AH85" s="2">
+      <c r="AI85" s="2">
         <v>22600.829389550683</v>
       </c>
-      <c r="AI85" s="2">
+      <c r="AJ85" s="2">
         <v>631.08097959424219</v>
       </c>
-      <c r="AJ85" s="3">
+      <c r="AK85" s="3">
         <v>45.787001978377482</v>
       </c>
-      <c r="AK85" s="3">
+      <c r="AL85" s="3">
         <v>12.556582763111663</v>
       </c>
-      <c r="AL85" s="3">
+      <c r="AM85" s="3">
         <v>1.0325385711615488E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>47</v>
       </c>
@@ -7913,25 +8029,26 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
-      <c r="AA86" s="3">
+      <c r="AA86" s="3"/>
+      <c r="AB86" s="3">
         <v>10.932719015001268</v>
       </c>
-      <c r="AB86" s="3">
+      <c r="AC86" s="3">
         <v>0.13898084562923371</v>
       </c>
-      <c r="AC86" s="3"/>
       <c r="AD86" s="3"/>
-      <c r="AH86" s="5"/>
-      <c r="AI86" s="2"/>
+      <c r="AE86" s="3"/>
+      <c r="AI86" s="5"/>
       <c r="AJ86" s="2"/>
-      <c r="AK86" s="5"/>
-      <c r="AL86" s="2"/>
+      <c r="AK86" s="2"/>
+      <c r="AL86" s="5"/>
       <c r="AM86" s="2"/>
       <c r="AN86" s="2"/>
       <c r="AO86" s="2"/>
       <c r="AP86" s="2"/>
-    </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ86" s="2"/>
+    </row>
+    <row r="87" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>47</v>
       </c>
@@ -7977,25 +8094,26 @@
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
-      <c r="AA87" s="3">
+      <c r="AA87" s="3"/>
+      <c r="AB87" s="3">
         <v>9.4231255571394676</v>
       </c>
-      <c r="AB87" s="3">
+      <c r="AC87" s="3">
         <v>7.6267359135113608E-2</v>
       </c>
-      <c r="AC87" s="3"/>
       <c r="AD87" s="3"/>
-      <c r="AH87" s="5"/>
-      <c r="AI87" s="2"/>
+      <c r="AE87" s="3"/>
+      <c r="AI87" s="5"/>
       <c r="AJ87" s="2"/>
-      <c r="AK87" s="5"/>
-      <c r="AL87" s="2"/>
+      <c r="AK87" s="2"/>
+      <c r="AL87" s="5"/>
       <c r="AM87" s="2"/>
       <c r="AN87" s="2"/>
       <c r="AO87" s="2"/>
       <c r="AP87" s="2"/>
-    </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ87" s="2"/>
+    </row>
+    <row r="88" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -8041,25 +8159,26 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
-      <c r="AA88" s="3">
+      <c r="AA88" s="3"/>
+      <c r="AB88" s="3">
         <v>9.8768307045132051</v>
       </c>
-      <c r="AB88" s="3">
+      <c r="AC88" s="3">
         <v>7.8201351579679584E-2</v>
       </c>
-      <c r="AC88" s="3"/>
       <c r="AD88" s="3"/>
-      <c r="AH88" s="5"/>
-      <c r="AI88" s="2"/>
+      <c r="AE88" s="3"/>
+      <c r="AI88" s="5"/>
       <c r="AJ88" s="2"/>
-      <c r="AK88" s="5"/>
-      <c r="AL88" s="2"/>
+      <c r="AK88" s="2"/>
+      <c r="AL88" s="5"/>
       <c r="AM88" s="2"/>
       <c r="AN88" s="2"/>
       <c r="AO88" s="2"/>
       <c r="AP88" s="2"/>
-    </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ88" s="2"/>
+    </row>
+    <row r="89" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>47</v>
       </c>
@@ -8105,25 +8224,26 @@
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
-      <c r="AA89" s="3">
+      <c r="AA89" s="3"/>
+      <c r="AB89" s="3">
         <v>5.9461144682982674</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2.7437281462677526E-2</v>
       </c>
-      <c r="AC89" s="3"/>
       <c r="AD89" s="3"/>
-      <c r="AH89" s="5"/>
-      <c r="AI89" s="2"/>
+      <c r="AE89" s="3"/>
+      <c r="AI89" s="5"/>
       <c r="AJ89" s="2"/>
-      <c r="AK89" s="5"/>
-      <c r="AL89" s="2"/>
+      <c r="AK89" s="2"/>
+      <c r="AL89" s="5"/>
       <c r="AM89" s="2"/>
       <c r="AN89" s="2"/>
       <c r="AO89" s="2"/>
       <c r="AP89" s="2"/>
-    </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ89" s="2"/>
+    </row>
+    <row r="90" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>47</v>
       </c>
@@ -8169,29 +8289,32 @@
       <c r="X90" s="3">
         <v>43.996664813785443</v>
       </c>
-      <c r="Y90" s="3"/>
+      <c r="Y90" s="3">
+        <v>43.996664813785443</v>
+      </c>
       <c r="Z90" s="3"/>
-      <c r="AA90" s="3">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3">
         <v>17.052430128717376</v>
       </c>
-      <c r="AB90" s="3">
+      <c r="AC90" s="3">
         <v>0</v>
       </c>
-      <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-      <c r="AH90" s="5"/>
-      <c r="AI90" s="2"/>
+      <c r="AE90" s="3"/>
+      <c r="AI90" s="5"/>
       <c r="AJ90" s="2"/>
-      <c r="AK90" s="3">
+      <c r="AK90" s="2"/>
+      <c r="AL90" s="3">
         <v>4.0797815764938754</v>
       </c>
-      <c r="AL90" s="2"/>
       <c r="AM90" s="2"/>
       <c r="AN90" s="2"/>
       <c r="AO90" s="2"/>
       <c r="AP90" s="2"/>
-    </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ90" s="2"/>
+    </row>
+    <row r="91" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>50</v>
       </c>
@@ -8237,25 +8360,26 @@
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
-      <c r="AA91" s="3">
+      <c r="AA91" s="3"/>
+      <c r="AB91" s="3">
         <v>20.826151348596134</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>0.26519874110878316</v>
       </c>
-      <c r="AC91" s="3"/>
       <c r="AD91" s="3"/>
-      <c r="AH91" s="5"/>
-      <c r="AI91" s="2"/>
+      <c r="AE91" s="3"/>
+      <c r="AI91" s="5"/>
       <c r="AJ91" s="2"/>
-      <c r="AK91" s="3"/>
-      <c r="AL91" s="2"/>
+      <c r="AK91" s="2"/>
+      <c r="AL91" s="3"/>
       <c r="AM91" s="2"/>
       <c r="AN91" s="2"/>
       <c r="AO91" s="2"/>
       <c r="AP91" s="2"/>
-    </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ91" s="2"/>
+    </row>
+    <row r="92" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>50</v>
       </c>
@@ -8301,25 +8425,26 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
-      <c r="AA92" s="3">
+      <c r="AA92" s="3"/>
+      <c r="AB92" s="3">
         <v>11.878009184517968</v>
       </c>
-      <c r="AB92" s="3">
+      <c r="AC92" s="3">
         <v>9.6136296475371544E-2</v>
       </c>
-      <c r="AC92" s="3"/>
       <c r="AD92" s="3"/>
-      <c r="AH92" s="5"/>
-      <c r="AI92" s="2"/>
+      <c r="AE92" s="3"/>
+      <c r="AI92" s="5"/>
       <c r="AJ92" s="2"/>
-      <c r="AK92" s="3"/>
-      <c r="AL92" s="2"/>
+      <c r="AK92" s="2"/>
+      <c r="AL92" s="3"/>
       <c r="AM92" s="2"/>
       <c r="AN92" s="2"/>
       <c r="AO92" s="2"/>
       <c r="AP92" s="2"/>
-    </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ92" s="2"/>
+    </row>
+    <row r="93" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>50</v>
       </c>
@@ -8365,25 +8490,26 @@
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
-      <c r="AA93" s="3">
+      <c r="AA93" s="3"/>
+      <c r="AB93" s="3">
         <v>7.4546923841074362</v>
       </c>
-      <c r="AB93" s="3">
+      <c r="AC93" s="3">
         <v>5.9023692669096788E-2</v>
       </c>
-      <c r="AC93" s="3"/>
       <c r="AD93" s="3"/>
-      <c r="AH93" s="5"/>
-      <c r="AI93" s="2"/>
+      <c r="AE93" s="3"/>
+      <c r="AI93" s="5"/>
       <c r="AJ93" s="2"/>
-      <c r="AK93" s="3"/>
-      <c r="AL93" s="2"/>
+      <c r="AK93" s="2"/>
+      <c r="AL93" s="3"/>
       <c r="AM93" s="2"/>
       <c r="AN93" s="2"/>
       <c r="AO93" s="2"/>
       <c r="AP93" s="2"/>
-    </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ93" s="2"/>
+    </row>
+    <row r="94" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>50</v>
       </c>
@@ -8429,25 +8555,26 @@
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
-      <c r="AA94" s="3">
+      <c r="AA94" s="3"/>
+      <c r="AB94" s="3">
         <v>25.931124284842468</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>0.11965453397176197</v>
       </c>
-      <c r="AC94" s="3"/>
       <c r="AD94" s="3"/>
-      <c r="AH94" s="5"/>
-      <c r="AI94" s="2"/>
+      <c r="AE94" s="3"/>
+      <c r="AI94" s="5"/>
       <c r="AJ94" s="2"/>
-      <c r="AK94" s="3"/>
-      <c r="AL94" s="2"/>
+      <c r="AK94" s="2"/>
+      <c r="AL94" s="3"/>
       <c r="AM94" s="2"/>
       <c r="AN94" s="2"/>
       <c r="AO94" s="2"/>
       <c r="AP94" s="2"/>
-    </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ94" s="2"/>
+    </row>
+    <row r="95" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>50</v>
       </c>
@@ -8493,29 +8620,32 @@
       <c r="X95" s="3">
         <v>81.376227533815083</v>
       </c>
-      <c r="Y95" s="3"/>
+      <c r="Y95" s="3">
+        <v>81.376227533815083</v>
+      </c>
       <c r="Z95" s="3"/>
-      <c r="AA95" s="3">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3">
         <v>26.906073677677664</v>
       </c>
-      <c r="AB95" s="3">
+      <c r="AC95" s="3">
         <v>0</v>
       </c>
-      <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-      <c r="AH95" s="5"/>
-      <c r="AI95" s="2"/>
+      <c r="AE95" s="3"/>
+      <c r="AI95" s="5"/>
       <c r="AJ95" s="2"/>
-      <c r="AK95" s="3">
+      <c r="AK95" s="2"/>
+      <c r="AL95" s="3">
         <v>7.6733618420854386</v>
       </c>
-      <c r="AL95" s="2"/>
       <c r="AM95" s="2"/>
       <c r="AN95" s="2"/>
       <c r="AO95" s="2"/>
       <c r="AP95" s="2"/>
-    </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ95" s="2"/>
+    </row>
+    <row r="96" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>51</v>
       </c>
@@ -8561,25 +8691,26 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
-      <c r="AA96" s="3">
+      <c r="AA96" s="3"/>
+      <c r="AB96" s="3">
         <v>10.57363070498312</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>0.13938573177026595</v>
       </c>
-      <c r="AC96" s="3"/>
       <c r="AD96" s="3"/>
-      <c r="AH96" s="5"/>
-      <c r="AI96" s="2"/>
+      <c r="AE96" s="3"/>
+      <c r="AI96" s="5"/>
       <c r="AJ96" s="2"/>
-      <c r="AK96" s="3"/>
-      <c r="AL96" s="2"/>
+      <c r="AK96" s="2"/>
+      <c r="AL96" s="3"/>
       <c r="AM96" s="2"/>
       <c r="AN96" s="2"/>
       <c r="AO96" s="2"/>
       <c r="AP96" s="2"/>
-    </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ96" s="2"/>
+    </row>
+    <row r="97" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>51</v>
       </c>
@@ -8625,25 +8756,26 @@
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
-      <c r="AA97" s="3">
+      <c r="AA97" s="3"/>
+      <c r="AB97" s="3">
         <v>31.0913267289388</v>
       </c>
-      <c r="AB97" s="3">
+      <c r="AC97" s="3">
         <v>0.25164191724331031</v>
       </c>
-      <c r="AC97" s="3"/>
       <c r="AD97" s="3"/>
-      <c r="AH97" s="5"/>
-      <c r="AI97" s="2"/>
+      <c r="AE97" s="3"/>
+      <c r="AI97" s="5"/>
       <c r="AJ97" s="2"/>
-      <c r="AK97" s="3"/>
-      <c r="AL97" s="2"/>
+      <c r="AK97" s="2"/>
+      <c r="AL97" s="3"/>
       <c r="AM97" s="2"/>
       <c r="AN97" s="2"/>
       <c r="AO97" s="2"/>
       <c r="AP97" s="2"/>
-    </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ97" s="2"/>
+    </row>
+    <row r="98" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>51</v>
       </c>
@@ -8689,20 +8821,21 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
-      <c r="AA98" s="3">
+      <c r="AA98" s="3"/>
+      <c r="AB98" s="3">
         <v>14.317965673084341</v>
       </c>
-      <c r="AB98" s="3">
+      <c r="AC98" s="3">
         <v>0.11336473217010662</v>
       </c>
-      <c r="AC98" s="3"/>
       <c r="AD98" s="3"/>
-      <c r="AH98" s="5"/>
-      <c r="AI98" s="2"/>
+      <c r="AE98" s="3"/>
+      <c r="AI98" s="5"/>
       <c r="AJ98" s="2"/>
-      <c r="AK98" s="3"/>
-    </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AK98" s="2"/>
+      <c r="AL98" s="3"/>
+    </row>
+    <row r="99" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>51</v>
       </c>
@@ -8748,20 +8881,21 @@
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
-      <c r="AA99" s="3">
+      <c r="AA99" s="3"/>
+      <c r="AB99" s="3">
         <v>15.366047319594717</v>
       </c>
-      <c r="AB99" s="3">
+      <c r="AC99" s="3">
         <v>7.0903876392620788E-2</v>
       </c>
-      <c r="AC99" s="3"/>
       <c r="AD99" s="3"/>
-      <c r="AH99" s="5"/>
-      <c r="AI99" s="2"/>
+      <c r="AE99" s="3"/>
+      <c r="AI99" s="5"/>
       <c r="AJ99" s="2"/>
-      <c r="AK99" s="3"/>
-    </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AK99" s="2"/>
+      <c r="AL99" s="3"/>
+    </row>
+    <row r="100" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>51</v>
       </c>
@@ -8807,25 +8941,29 @@
       <c r="X100" s="3">
         <v>57.786733370390962</v>
       </c>
-      <c r="Y100" s="3"/>
+      <c r="Y100" s="3">
+        <v>57.786733370390962</v>
+      </c>
       <c r="Z100" s="3"/>
-      <c r="AA100" s="3">
+      <c r="AA100" s="3"/>
+      <c r="AB100" s="3">
         <v>24.570362664392867</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>0</v>
       </c>
-      <c r="AC100" s="3"/>
       <c r="AD100" s="3"/>
-      <c r="AH100" s="5"/>
-      <c r="AI100" s="2"/>
+      <c r="AE100" s="3"/>
+      <c r="AI100" s="5"/>
       <c r="AJ100" s="2"/>
-      <c r="AK100" s="3">
+      <c r="AK100" s="2"/>
+      <c r="AL100" s="3">
         <v>7.5469345574844953</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL85" xr:uid="{88E473E4-03DA-403D-83E8-A09F834A928F}"/>
+  <autoFilter ref="A1:AM85" xr:uid="{88E473E4-03DA-403D-83E8-A09F834A928F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>